--- a/Data_preparation/datasets/final_data/SNOWFLAKE_INC_CLASS_A.xlsx
+++ b/Data_preparation/datasets/final_data/SNOWFLAKE_INC_CLASS_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,75 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -721,22 +652,22 @@
         <v>43496</v>
       </c>
       <c r="D2">
-        <v>159.5487626816853</v>
+        <v>245</v>
       </c>
       <c r="E2">
-        <v>173.8226776123047</v>
+        <v>251</v>
       </c>
       <c r="F2">
-        <v>175.6270923461549</v>
+        <v>319</v>
       </c>
       <c r="G2">
-        <v>155.512558863845</v>
+        <v>208.5500030517578</v>
       </c>
       <c r="H2">
-        <v>2319000000</v>
+        <v>338800000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-592138000</v>
@@ -765,22 +696,22 @@
         <v>43769</v>
       </c>
       <c r="D3">
-        <v>2.049999952316284</v>
+        <v>245</v>
       </c>
       <c r="E3">
-        <v>2.130000114440918</v>
+        <v>251</v>
       </c>
       <c r="F3">
-        <v>2.249000072479248</v>
+        <v>319</v>
       </c>
       <c r="G3">
-        <v>2.000999927520752</v>
+        <v>208.5500030517578</v>
       </c>
       <c r="H3">
-        <v>594273308</v>
+        <v>338800000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>73012000</v>
@@ -842,22 +773,22 @@
         <v>43861</v>
       </c>
       <c r="D4">
-        <v>23.6926327642264</v>
+        <v>245</v>
       </c>
       <c r="E4">
-        <v>20.75907325744629</v>
+        <v>251</v>
       </c>
       <c r="F4">
-        <v>25.38844422011294</v>
+        <v>319</v>
       </c>
       <c r="G4">
-        <v>19.00478605726309</v>
+        <v>208.5500030517578</v>
       </c>
       <c r="H4">
-        <v>862100000</v>
+        <v>338800000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-222783000</v>
@@ -931,22 +862,22 @@
         <v>43951</v>
       </c>
       <c r="D5">
-        <v>29.1299991607666</v>
+        <v>245</v>
       </c>
       <c r="E5">
-        <v>36.31999969482422</v>
+        <v>251</v>
       </c>
       <c r="F5">
-        <v>36.45000076293945</v>
+        <v>319</v>
       </c>
       <c r="G5">
-        <v>26.57999992370605</v>
+        <v>208.5500030517578</v>
       </c>
       <c r="H5">
-        <v>2085418676</v>
+        <v>338800000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>108815000</v>
@@ -1008,22 +939,22 @@
         <v>44043</v>
       </c>
       <c r="D6">
-        <v>49.18523125628565</v>
+        <v>245</v>
       </c>
       <c r="E6">
-        <v>44.42190551757812</v>
+        <v>251</v>
       </c>
       <c r="F6">
-        <v>50.24917073284447</v>
+        <v>319</v>
       </c>
       <c r="G6">
-        <v>41.23985008431981</v>
+        <v>208.5500030517578</v>
       </c>
       <c r="H6">
-        <v>1122466035</v>
+        <v>338800000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-389417000</v>
@@ -1103,22 +1034,22 @@
         <v>44135</v>
       </c>
       <c r="D7">
-        <v>478.8699951171875</v>
+        <v>254.1000061035156</v>
       </c>
       <c r="E7">
-        <v>490.7000122070313</v>
+        <v>325.8399963378906</v>
       </c>
       <c r="F7">
-        <v>518.72998046875</v>
+        <v>342</v>
       </c>
       <c r="G7">
-        <v>463.4100036621094</v>
+        <v>229.979995727539</v>
       </c>
       <c r="H7">
-        <v>424926346</v>
+        <v>338800000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>69328062301</v>
@@ -1219,22 +1150,22 @@
         <v>44227</v>
       </c>
       <c r="D8">
-        <v>239.3500061035156</v>
+        <v>275.1000061035156</v>
       </c>
       <c r="E8">
-        <v>283.4599914550781</v>
+        <v>259.5400085449219</v>
       </c>
       <c r="F8">
-        <v>354.8200073242188</v>
+        <v>327.4100036621094</v>
       </c>
       <c r="G8">
-        <v>235.8800048828125</v>
+        <v>242.979995727539</v>
       </c>
       <c r="H8">
-        <v>278228356</v>
+        <v>338800000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>77130595000</v>
@@ -1335,22 +1266,22 @@
         <v>44316</v>
       </c>
       <c r="D9">
-        <v>55.13000106811523</v>
+        <v>232.3000030517578</v>
       </c>
       <c r="E9">
-        <v>54.95000076293945</v>
+        <v>238.0299987792969</v>
       </c>
       <c r="F9">
-        <v>56.47000122070312</v>
+        <v>246.4750061035156</v>
       </c>
       <c r="G9">
-        <v>47.61999893188477</v>
+        <v>184.7100067138672</v>
       </c>
       <c r="H9">
-        <v>150594095</v>
+        <v>338800000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>66860033000</v>
@@ -1451,22 +1382,22 @@
         <v>44408</v>
       </c>
       <c r="D10">
-        <v>82.94634035907019</v>
+        <v>266.0400085449219</v>
       </c>
       <c r="E10">
-        <v>84.26999664306641</v>
+        <v>304.3500061035156</v>
       </c>
       <c r="F10">
-        <v>86.77550126072052</v>
+        <v>307.4200134277344</v>
       </c>
       <c r="G10">
-        <v>82.34123106917598</v>
+        <v>247.8800048828125</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>338800000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>78679692000</v>
@@ -1567,22 +1498,22 @@
         <v>44500</v>
       </c>
       <c r="D11">
-        <v>80.87172081815871</v>
+        <v>353.8399963378906</v>
       </c>
       <c r="E11">
-        <v>78.30628967285156</v>
+        <v>340.1499938964844</v>
       </c>
       <c r="F11">
-        <v>84.50996293035827</v>
+        <v>405</v>
       </c>
       <c r="G11">
-        <v>78.21299557369527</v>
+        <v>335.0499877929688</v>
       </c>
       <c r="H11">
-        <v>123248686</v>
+        <v>338800000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>106470456000</v>
@@ -1683,22 +1614,22 @@
         <v>44592</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>281.7999877929688</v>
       </c>
       <c r="E12">
-        <v>153.5630035400391</v>
+        <v>265.6600036621094</v>
       </c>
       <c r="F12">
-        <v>163.8345031738281</v>
+        <v>329.489990234375</v>
       </c>
       <c r="G12">
-        <v>138.3329925537109</v>
+        <v>240.1000061035156</v>
       </c>
       <c r="H12">
-        <v>10664912097</v>
+        <v>338800000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>84508170000</v>
@@ -1799,22 +1730,22 @@
         <v>44681</v>
       </c>
       <c r="D13">
-        <v>150.5399932861328</v>
+        <v>170.3099975585938</v>
       </c>
       <c r="E13">
-        <v>153.7299957275391</v>
+        <v>127.6500015258789</v>
       </c>
       <c r="F13">
-        <v>158.7100067138672</v>
+        <v>187.229995727539</v>
       </c>
       <c r="G13">
-        <v>132.3200073242188</v>
+        <v>112.0999984741211</v>
       </c>
       <c r="H13">
-        <v>272490000</v>
+        <v>338800000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>53935024000</v>
@@ -1915,22 +1846,22 @@
         <v>44773</v>
       </c>
       <c r="D14">
-        <v>3.940000057220459</v>
+        <v>146.6499938964844</v>
       </c>
       <c r="E14">
-        <v>3.509999990463257</v>
+        <v>180.9499969482422</v>
       </c>
       <c r="F14">
-        <v>4.380000114440918</v>
+        <v>205.6600036621093</v>
       </c>
       <c r="G14">
-        <v>3.339999914169312</v>
+        <v>143.0399932861328</v>
       </c>
       <c r="H14">
-        <v>448228270</v>
+        <v>338800000</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>47686371000</v>
@@ -2031,22 +1962,22 @@
         <v>44865</v>
       </c>
       <c r="D15">
-        <v>83.23999786376953</v>
+        <v>164.7400054931641</v>
       </c>
       <c r="E15">
-        <v>75.77999877929688</v>
+        <v>142.8999938964844</v>
       </c>
       <c r="F15">
-        <v>86.87999725341797</v>
+        <v>168</v>
       </c>
       <c r="G15">
-        <v>66.44699859619141</v>
+        <v>122.7699966430664</v>
       </c>
       <c r="H15">
-        <v>323270704</v>
+        <v>338800000</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>51296000000</v>
@@ -2147,22 +2078,22 @@
         <v>44957</v>
       </c>
       <c r="D16">
-        <v>3.789999961853027</v>
+        <v>158.5899963378906</v>
       </c>
       <c r="E16">
-        <v>3.700000047683716</v>
+        <v>154.3800048828125</v>
       </c>
       <c r="F16">
-        <v>4.099999904632568</v>
+        <v>178.6999969482422</v>
       </c>
       <c r="G16">
-        <v>3.440000057220459</v>
+        <v>145.2799987792969</v>
       </c>
       <c r="H16">
-        <v>72969110</v>
+        <v>338800000</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>50311104000</v>
@@ -2263,22 +2194,22 @@
         <v>45046</v>
       </c>
       <c r="D17">
-        <v>80.47000122070312</v>
+        <v>148.1499938964844</v>
       </c>
       <c r="E17">
-        <v>81.30999755859375</v>
+        <v>165.3600006103516</v>
       </c>
       <c r="F17">
-        <v>87.41999816894531</v>
+        <v>185</v>
       </c>
       <c r="G17">
-        <v>75.16000366210938</v>
+        <v>142.4420013427734</v>
       </c>
       <c r="H17">
-        <v>136895573</v>
+        <v>338800000</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>48126000000</v>
@@ -2379,22 +2310,22 @@
         <v>45138</v>
       </c>
       <c r="D18">
-        <v>572.4199829101562</v>
+        <v>175.2299957275391</v>
       </c>
       <c r="E18">
-        <v>546.52001953125</v>
+        <v>156.8500061035156</v>
       </c>
       <c r="F18">
-        <v>579.1199951171875</v>
+        <v>177.7100067138672</v>
       </c>
       <c r="G18">
-        <v>477.510009765625</v>
+        <v>142.3999938964844</v>
       </c>
       <c r="H18">
-        <v>52693110</v>
+        <v>338800000</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>57915689000</v>
@@ -2495,22 +2426,22 @@
         <v>45230</v>
       </c>
       <c r="D19">
-        <v>204.0399932861328</v>
+        <v>145.3000030517578</v>
       </c>
       <c r="E19">
-        <v>240.0800018310547</v>
+        <v>187.6799926757812</v>
       </c>
       <c r="F19">
-        <v>252.75</v>
+        <v>192.6600036621093</v>
       </c>
       <c r="G19">
-        <v>197.8500061035156</v>
+        <v>140.1399993896484</v>
       </c>
       <c r="H19">
-        <v>3325150886</v>
+        <v>338800000</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>47849361000</v>
@@ -2611,22 +2542,22 @@
         <v>45322</v>
       </c>
       <c r="D20">
-        <v>354.4882078035527</v>
+        <v>197</v>
       </c>
       <c r="E20">
-        <v>364.9865112304687</v>
+        <v>188.2799987792969</v>
       </c>
       <c r="F20">
-        <v>370.4596485847449</v>
+        <v>237.7200012207031</v>
       </c>
       <c r="G20">
-        <v>349.5896494174895</v>
+        <v>180.6799926757812</v>
       </c>
       <c r="H20">
-        <v>622000000</v>
+        <v>338800000</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>64424252000</v>
@@ -2727,22 +2658,22 @@
         <v>45412</v>
       </c>
       <c r="D21">
-        <v>32.91999816894531</v>
+        <v>158.1399993896484</v>
       </c>
       <c r="E21">
-        <v>29.47999954223633</v>
+        <v>136.1799926757812</v>
       </c>
       <c r="F21">
-        <v>34.43000030517578</v>
+        <v>168.8000030517578</v>
       </c>
       <c r="G21">
-        <v>29.14999961853028</v>
+        <v>133.5899963378906</v>
       </c>
       <c r="H21">
-        <v>48253392</v>
+        <v>338800000</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>51867840000</v>
@@ -2843,22 +2774,22 @@
         <v>45504</v>
       </c>
       <c r="D22">
-        <v>65.3347813084503</v>
+        <v>129.3999938964844</v>
       </c>
       <c r="E22">
-        <v>75.98967742919922</v>
+        <v>114.2300033569336</v>
       </c>
       <c r="F22">
-        <v>78.74061759069839</v>
+        <v>135.7200012207031</v>
       </c>
       <c r="G22">
-        <v>53.01535875336031</v>
+        <v>107.9300003051758</v>
       </c>
       <c r="H22">
-        <v>862100000</v>
+        <v>338800000</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>43651224000</v>
@@ -2959,22 +2890,22 @@
         <v>45596</v>
       </c>
       <c r="D23">
-        <v>171.1399993896484</v>
+        <v>115.9800033569336</v>
       </c>
       <c r="E23">
-        <v>336.75</v>
+        <v>174.8000030517578</v>
       </c>
       <c r="F23">
-        <v>344.7699890136719</v>
+        <v>178.6999969482422</v>
       </c>
       <c r="G23">
-        <v>158.3300018310547</v>
+        <v>113.2300033569336</v>
       </c>
       <c r="H23">
-        <v>307636373</v>
+        <v>338800000</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>38487664000</v>
@@ -3075,22 +3006,22 @@
         <v>45688</v>
       </c>
       <c r="D24">
-        <v>29.5</v>
+        <v>176.1699981689453</v>
       </c>
       <c r="E24">
-        <v>23.45000076293945</v>
+        <v>177.1000061035156</v>
       </c>
       <c r="F24">
-        <v>35.97999954223633</v>
+        <v>194.3999938964844</v>
       </c>
       <c r="G24">
-        <v>22.81999969482422</v>
+        <v>160.6600036621094</v>
       </c>
       <c r="H24">
-        <v>134349704</v>
+        <v>338800000</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>59898300000</v>
@@ -3191,22 +3122,22 @@
         <v>45777</v>
       </c>
       <c r="D25">
-        <v>160.2100067138672</v>
+        <v>168.3950042724609</v>
       </c>
       <c r="E25">
-        <v>168.3200073242188</v>
+        <v>205.6699981689453</v>
       </c>
       <c r="F25">
-        <v>174.2599945068359</v>
+        <v>209.8000030517578</v>
       </c>
       <c r="G25">
-        <v>151.6699981689453</v>
+        <v>164.2400054931641</v>
       </c>
       <c r="H25">
-        <v>119792704</v>
+        <v>338800000</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>53285609000</v>
@@ -3307,22 +3238,22 @@
         <v>45869</v>
       </c>
       <c r="D26">
-        <v>77.06999969482422</v>
+        <v>216.8000030517578</v>
       </c>
       <c r="E26">
-        <v>62.86999893188477</v>
+        <v>238.6600036621093</v>
       </c>
       <c r="F26">
-        <v>80.05999755859375</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="G26">
-        <v>62.61999893188477</v>
+        <v>188</v>
       </c>
       <c r="H26">
-        <v>862100000</v>
+        <v>338800000</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>74581950000</v>
